--- a/GastosORO.xlsx
+++ b/GastosORO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Prodnasmc2\home2$\PLQ5835\My Documents\My Pictures\MES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="23820" windowHeight="10110"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$B$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$4:$B$14</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Tarjeta Oro</t>
   </si>
@@ -90,20 +95,29 @@
     <t>OTROS</t>
   </si>
   <si>
-    <t>Licuadora</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
     <t>TOTAL A PAGAR</t>
+  </si>
+  <si>
+    <t>Refrigerador</t>
+  </si>
+  <si>
+    <t>1/4 de kilo</t>
+  </si>
+  <si>
+    <t>Cama</t>
+  </si>
+  <si>
+    <t>CheesFactory</t>
+  </si>
+  <si>
+    <t>Super Cosco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +148,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -197,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -432,6 +453,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -443,34 +541,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
@@ -479,9 +552,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -496,6 +566,56 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -509,6 +629,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,6 +646,140 @@
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="CommandButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="CommandButton2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="1">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+              <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+                <a14:shadowObscured val="1"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,9 +857,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,6 +909,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -804,15 +1102,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -822,418 +1120,650 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="14" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="5">
         <v>16000</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="5">
         <v>24</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="5">
         <f>E5*F5</f>
-        <v>20387.2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>23</v>
-      </c>
-      <c r="F5" s="14">
+        <v>19500.8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5">
         <v>886.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="14" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <f>E6*F6</f>
+        <v>6000</v>
+      </c>
+      <c r="E6" s="5">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <f>B6/C6</f>
+        <v>500</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B7" s="5">
         <v>2004</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C7" s="5">
         <v>12</v>
       </c>
-      <c r="D6" s="14">
-        <f>E6*F6</f>
-        <v>1503</v>
-      </c>
-      <c r="E6" s="14">
-        <v>9</v>
-      </c>
-      <c r="F6" s="14">
-        <f>B6/C6</f>
+      <c r="D7" s="5">
+        <f>E7*F7</f>
+        <v>1336</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <f>B7/C7</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="14" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B8" s="5">
         <v>3756</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C8" s="5">
         <v>12</v>
       </c>
-      <c r="D7" s="14">
-        <f t="shared" ref="D7:D11" si="0">E7*F7</f>
-        <v>2817</v>
-      </c>
-      <c r="E7" s="14">
-        <v>9</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" ref="F7:F11" si="1">B7/C7</f>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D13" si="0">E8*F8</f>
+        <v>2504</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F13" si="1">B8/C8</f>
         <v>313</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="14" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>11623</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>11623</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>1937.1666666666667</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B10" s="5">
         <v>10788</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>3596</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4</v>
-      </c>
-      <c r="F8" s="14">
+        <v>2697</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>899</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="14" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B11" s="5">
         <v>1000</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14">
+        <v>333.33333333333331</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>166.66666666666666</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="14" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B12" s="5">
         <v>984</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C12" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>492</v>
-      </c>
-      <c r="E10" s="14">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14">
+        <v>328</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="H10" s="2">
+      <c r="G12" s="17"/>
+      <c r="H12" s="35">
         <f>F16+B27+F27</f>
-        <v>5694.4</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="14" t="s">
+        <v>7447.8666666666668</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B13" s="5">
         <v>1150</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>766.66666666666663</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2</v>
-      </c>
-      <c r="F11" s="14">
+        <v>383.33333333333331</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>383.33333333333331</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="13" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="4">
         <f>SUM(B5:B15)</f>
-        <v>35682</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13">
+        <v>53305</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4">
         <f>SUM(D5:D15)</f>
-        <v>30061.866666666669</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13">
-        <f>SUM(F5:F11)</f>
-        <v>2979.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="9" t="s">
+        <v>44705.466666666674</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4">
+        <f>SUM(F5:F15)</f>
+        <v>5416.5666666666666</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="9" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="17" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="11">
         <v>289</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="21">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="22" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11">
+        <v>127</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="13">
         <v>159</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="22" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="13">
+        <v>168.3</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="13">
         <v>149</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="22" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="13">
+        <v>640</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="13">
         <v>499</v>
       </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="19" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="9">
         <f>SUM(B20:B26)</f>
         <v>1096</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="4">
         <f>SUM(F20:F26)</f>
-        <v>1619</v>
-      </c>
+        <v>935.3</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H8:J9"/>
     <mergeCell ref="H10:J11"/>
+    <mergeCell ref="H12:J13"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <controls>
-    <control shapeId="1026" r:id="rId3" name="CommandButton2"/>
-    <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>600075</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+          <controlPr defaultSize="0" autoFill="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
